--- a/Python/Results Summary/Results_EI_NegativeNEin2050_-724_TrueREFERENCEreference.xlsx
+++ b/Python/Results Summary/Results_EI_NegativeNEin2050_-724_TrueREFERENCEreference.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atpha\Documents\Postdocs\Projects\NETs\Model\EI-CE\Python\Results Summary\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B961F84A-D434-41A8-9848-1DC1C46F7BB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="2115" windowWidth="12825" windowHeight="12480" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Costs" sheetId="1" r:id="rId1"/>
@@ -18,7 +12,7 @@
     <sheet name="Generation" sheetId="3" r:id="rId3"/>
     <sheet name="New Generation" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -133,19 +127,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-  </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -171,28 +154,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -239,7 +211,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -271,27 +243,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -323,24 +277,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -516,125 +452,125 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>34169.470622752713</v>
+        <v>0</v>
       </c>
       <c r="D1" t="s">
         <v>29</v>
       </c>
       <c r="E1">
-        <v>165186.94873696941</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>170134.8033539833</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>26102.893164088069</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3">
-        <v>6398.9221309189934</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>942.8400275269606</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>8</v>
       </c>
       <c r="B4">
-        <v>66671.285917759771</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>942.8400275269606</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>2</v>
       </c>
       <c r="B6">
-        <v>17219.12486426629</v>
+        <v>0</v>
       </c>
       <c r="D6" t="s">
         <v>30</v>
       </c>
       <c r="E6">
-        <v>375006.83184874221</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>283766.9222700877</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>3</v>
       </c>
       <c r="B7">
-        <v>30640.05693264036</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>72614.600881381222</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>152610.3307083945</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>9</v>
       </c>
       <c r="B9">
-        <v>120473.7826782879</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>152610.3307083945</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>4</v>
       </c>
       <c r="B12">
-        <v>51388.595487019003</v>
+        <v>0</v>
       </c>
       <c r="D12" t="s">
         <v>31</v>
       </c>
       <c r="E12">
-        <v>540193.78058571159</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>453901.725624071</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>5</v>
       </c>
       <c r="B13">
-        <v>56742.950096728433</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>10</v>
       </c>
       <c r="B14">
-        <v>79013.523012300211</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+        <v>153553.1707359214</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>11</v>
       </c>
       <c r="B16">
-        <v>187145.06859604761</v>
+        <v>153553.1707359214</v>
       </c>
     </row>
   </sheetData>
@@ -643,22 +579,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.140625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="B1" t="s">
         <v>21</v>
       </c>
@@ -678,220 +606,211 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="1">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1">
-        <v>0</v>
-      </c>
-      <c r="H2" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="1">
-        <v>394.39845625030779</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0</v>
-      </c>
-      <c r="E3" s="1">
-        <v>394.39845625030779</v>
-      </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1">
-        <v>2345.023113187784</v>
-      </c>
-      <c r="H3" s="1">
-        <v>2739.4215694380919</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>89259.15328638977</v>
+      </c>
+      <c r="E3">
+        <v>89259.15328638977</v>
+      </c>
+      <c r="G3">
+        <v>57711.70015103403</v>
+      </c>
+      <c r="H3">
+        <v>146970.8534374238</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="1">
-        <v>0</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0</v>
-      </c>
-      <c r="D4" s="1">
-        <v>3968.4436458849259</v>
-      </c>
-      <c r="E4" s="1">
-        <v>3968.4436458849259</v>
-      </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1">
-        <v>2345.023113187784</v>
-      </c>
-      <c r="H4" s="1">
-        <v>6313.4667590727113</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>57711.70015103403</v>
+      </c>
+      <c r="H4">
+        <v>57711.70015103403</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="1">
-        <v>0</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0</v>
-      </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1">
-        <v>0</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="1">
-        <v>145710.66517947329</v>
-      </c>
-      <c r="C6" s="1">
-        <v>236481.52450447329</v>
-      </c>
-      <c r="D6" s="1">
-        <v>341694.70462847227</v>
-      </c>
-      <c r="E6" s="1">
-        <v>723886.89431241888</v>
-      </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1">
-        <v>192287.3789548573</v>
-      </c>
-      <c r="H6" s="1">
-        <v>916174.27326727624</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>956944.1027268033</v>
+      </c>
+      <c r="E6">
+        <v>956944.1027268033</v>
+      </c>
+      <c r="G6">
+        <v>231725.5693545845</v>
+      </c>
+      <c r="H6">
+        <v>1188669.672081388</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="1">
-        <v>0</v>
-      </c>
-      <c r="C7" s="1">
-        <v>62698.901613543341</v>
-      </c>
-      <c r="D7" s="1">
-        <v>137494.05334824021</v>
-      </c>
-      <c r="E7" s="1">
-        <v>200192.95496178349</v>
-      </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1">
-        <v>214175.61920302839</v>
-      </c>
-      <c r="H7" s="1">
-        <v>414368.57416481187</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>356006.5733960111</v>
+      </c>
+      <c r="E7">
+        <v>356006.5733960111</v>
+      </c>
+      <c r="G7">
+        <v>177046.9844273029</v>
+      </c>
+      <c r="H7">
+        <v>533053.5578233141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="1">
-        <v>0</v>
-      </c>
-      <c r="C8" s="1">
-        <v>10961.501193937651</v>
-      </c>
-      <c r="D8" s="1">
-        <v>44697.867790942277</v>
-      </c>
-      <c r="E8" s="1">
-        <v>55659.368984879933</v>
-      </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1">
-        <v>164371.4901835772</v>
-      </c>
-      <c r="H8" s="1">
-        <v>220030.85916845719</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>94401.27381288703</v>
+      </c>
+      <c r="E8">
+        <v>94401.27381288703</v>
+      </c>
+      <c r="G8">
+        <v>17973.32876134892</v>
+      </c>
+      <c r="H8">
+        <v>112374.6025742359</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="1">
-        <v>0</v>
-      </c>
-      <c r="C9" s="1">
-        <v>0</v>
-      </c>
-      <c r="D9" s="1">
-        <v>125520.5638450463</v>
-      </c>
-      <c r="E9" s="1">
-        <v>125520.5638450463</v>
-      </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1">
-        <v>0</v>
-      </c>
-      <c r="H9" s="1">
-        <v>125520.5638450463</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>209282.732207467</v>
+      </c>
+      <c r="E9">
+        <v>209282.732207467</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>209282.732207467</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="1">
-        <v>0</v>
-      </c>
-      <c r="C10" s="1">
-        <v>0</v>
-      </c>
-      <c r="D10" s="1">
-        <v>-1238.4526699629059</v>
-      </c>
-      <c r="E10" s="1">
-        <v>-1238.4526699629059</v>
-      </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1">
-        <v>-153643.10477744389</v>
-      </c>
-      <c r="H10" s="1">
-        <v>-154881.55744740681</v>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>-688.1737178490628</v>
+      </c>
+      <c r="E10">
+        <v>-688.1737178490628</v>
+      </c>
+      <c r="G10">
+        <v>-153156.2234888573</v>
+      </c>
+      <c r="H10">
+        <v>-153844.3972067064</v>
       </c>
     </row>
   </sheetData>
@@ -900,22 +819,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:G13"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.42578125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="B1" t="s">
         <v>21</v>
       </c>
@@ -935,256 +846,244 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="1">
-        <v>30160.18691716859</v>
-      </c>
-      <c r="C2" s="1">
-        <v>12611.290764468489</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1">
-        <v>42771.477681637072</v>
-      </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="1">
-        <v>29652.334517705869</v>
-      </c>
-      <c r="C3" s="1">
-        <v>36950.688454318799</v>
-      </c>
-      <c r="D3" s="1">
-        <v>11228.705920947699</v>
-      </c>
-      <c r="E3" s="1">
-        <v>77831.728892972373</v>
-      </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1">
-        <v>7007.9381205223244</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>2042.390505930064</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="1">
-        <v>0</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0</v>
-      </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1">
-        <v>715.28458081169686</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="1">
-        <v>26455.601516729352</v>
-      </c>
-      <c r="C5" s="1">
-        <v>25811.874007107559</v>
-      </c>
-      <c r="D5" s="1">
-        <v>22973.802893102398</v>
-      </c>
-      <c r="E5" s="1">
-        <v>75241.278416939313</v>
-      </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1">
-        <v>22517.44597899271</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="1">
-        <v>0</v>
-      </c>
-      <c r="C6" s="1">
-        <v>16610.644354947592</v>
-      </c>
-      <c r="D6" s="1">
-        <v>37617.5730360421</v>
-      </c>
-      <c r="E6" s="1">
-        <v>54228.217390989688</v>
-      </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1">
-        <v>64284.270224084546</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>110229.5681228061</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="1">
-        <v>0</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0</v>
-      </c>
-      <c r="D7" s="1">
-        <v>3025.504947377804</v>
-      </c>
-      <c r="E7" s="1">
-        <v>3025.504947377804</v>
-      </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1">
-        <v>11696.752517347089</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>29151.8762058905</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="1">
-        <v>0.3645000000000001</v>
-      </c>
-      <c r="C8" s="1">
-        <v>0.87390000000000057</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0.73764000000000041</v>
-      </c>
-      <c r="E8" s="1">
-        <v>1.9760400000000009</v>
-      </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1">
-        <v>0.33695999999999998</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="1">
-        <v>0</v>
-      </c>
-      <c r="C9" s="1">
-        <v>0</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0</v>
-      </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1">
-        <v>20971.972931672932</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>40505.53572472108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="1">
-        <v>0</v>
-      </c>
-      <c r="C10" s="1">
-        <v>0</v>
-      </c>
-      <c r="D10" s="1">
-        <v>0</v>
-      </c>
-      <c r="E10" s="1">
-        <v>0</v>
-      </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="1">
-        <v>180.58751864122499</v>
-      </c>
-      <c r="C11" s="1">
-        <v>125.18662041394199</v>
-      </c>
-      <c r="D11" s="1">
-        <v>432.84991330821691</v>
-      </c>
-      <c r="E11" s="1">
-        <v>738.62405236338395</v>
-      </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="1">
-        <v>1160.3705993035539</v>
-      </c>
-      <c r="C12" s="1">
-        <v>1035.0173842731101</v>
-      </c>
-      <c r="D12" s="1">
-        <v>164.8203922744562</v>
-      </c>
-      <c r="E12" s="1">
-        <v>2360.2083758511189</v>
-      </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0.002899999999999999</v>
+      </c>
+      <c r="E12">
+        <v>0.002899999999999999</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="1">
-        <v>738.05165082744963</v>
-      </c>
-      <c r="C13" s="1">
-        <v>696.50348731306644</v>
-      </c>
-      <c r="D13" s="1">
-        <v>66.28570000000002</v>
-      </c>
-      <c r="E13" s="1">
-        <v>1500.8408381405161</v>
-      </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1">
-        <v>23.95830000000004</v>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1193,14 +1092,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="B1" t="s">
         <v>21</v>
       </c>
@@ -1220,7 +1119,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -1243,30 +1142,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>13</v>
       </c>
       <c r="B3">
-        <v>122.9268996410094</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>8735.731010218307</v>
       </c>
       <c r="E3">
-        <v>122.9268996410094</v>
+        <v>8735.731010218307</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>122.9268996410094</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>8735.731010218307</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -1277,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>780.90769440250824</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>780.90769440250824</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>406.99059942494199</v>
+        <v>17414.30138723843</v>
       </c>
       <c r="H4">
-        <v>1187.8982938274501</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>17414.30138723843</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1312,30 +1211,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>16</v>
       </c>
       <c r="B6">
-        <v>18908.12533534973</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>19678.664658346439</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>39000.860621959437</v>
+        <v>105744.3161917229</v>
       </c>
       <c r="E6">
-        <v>77587.650615655613</v>
+        <v>105744.3161917229</v>
       </c>
       <c r="G6">
-        <v>23420.769766554651</v>
+        <v>16664.03894975499</v>
       </c>
       <c r="H6">
-        <v>101008.4203822103</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>122408.3551414779</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -1343,22 +1242,22 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>3743.8703053154072</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>7350.1434685569629</v>
+        <v>28623.56504880282</v>
       </c>
       <c r="E7">
-        <v>11094.01377387237</v>
+        <v>28623.56504880282</v>
       </c>
       <c r="G7">
-        <v>11600.211543405219</v>
+        <v>13914.86531825835</v>
       </c>
       <c r="H7">
-        <v>22694.225317277589</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>42538.43036706116</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -1366,22 +1265,22 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>625.04218600135891</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>2206.0625122799061</v>
+        <v>7378.913140320299</v>
       </c>
       <c r="E8">
-        <v>2831.104698281265</v>
+        <v>7378.913140320299</v>
       </c>
       <c r="G8">
-        <v>5732.2172042499897</v>
+        <v>915.81509459942</v>
       </c>
       <c r="H8">
-        <v>8563.3219025312537</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>8294.728234919719</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -1392,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>18460.180614990779</v>
+        <v>40588.138221676</v>
       </c>
       <c r="E9">
-        <v>18460.180614990779</v>
+        <v>40588.138221676</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>18460.180614990779</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>40588.138221676</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -1415,16 +1314,16 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>-278.65185074165208</v>
+        <v>-209.0072163779585</v>
       </c>
       <c r="E10">
-        <v>-278.65185074165208</v>
+        <v>-209.0072163779585</v>
       </c>
       <c r="G10">
-        <v>-26625.455118114151</v>
+        <v>-48712.65630955403</v>
       </c>
       <c r="H10">
-        <v>-26904.106968855798</v>
+        <v>-48921.66352593199</v>
       </c>
     </row>
   </sheetData>
